--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,14 +929,239 @@
           <t>15℃</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20230214</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20230214</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TT : 42 ~ 48</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>약함</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>18 ~ 22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CT  : 약함</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CT  : 보통</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3 ~ -3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SSI  : 격렬함</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SSI  : 보통</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24m/s</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>하계</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>연중</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 육상에서 순간풍속 20m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21m/s</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT : 18 ~ 22</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>약함</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20230215</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,14 +1154,588 @@
           <t>보통</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20230215</t>
-        </is>
+      <c r="D29" t="n">
+        <v>20230215</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>30m/s</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24m/s</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>18시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>18시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TT : 42 ~ 48</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>약함</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 육상에서 순간풍속 20m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28m/s</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>풍랑 경보 : 해상에서 풍속 21m/s 이상이 3시간 이상 지속될 때</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6시간</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3시간</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>18시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>한파 주의보 : 10월 ~ 4월 중 ① 아침최저기온이 전날보다 10℃ 이상 하강하여 3℃ 이하이고 평년값보다 3℃가 낮을 것으로 예상될때</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5℃</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3℃</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>18시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>H/(H+M)
+______|  예보 O  | 예보 X
+관측 O |    H    |   M
+관측 X |    F    |   C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>정확도(ACC)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>임계성공지수(POD)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>18시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>① 일최고체감온도 33℃이상인 상태가 2일 이상 지속될 것으로 예상될 때</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>폭염 주의보//폭염 경보</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>18시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>대설 경보 : 24시간 신적설이 20cm 이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5cm</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20cm</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>18시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>48 ~ 54</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TT  : 약함</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>TT  : 보통</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>18시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CAPE : 900 ~ 1800</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>격렬함</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>500 ~ 900</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CAPE  : 강함</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAPE  : 보통</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>18시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 역전층</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KI, SSI : SSI는 850hPa에 해당</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>18시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0 ~ -2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LI : 약함</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>18시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CT에 850hPa과 500hPa의 기온차이가 추가되어 대기 중하층의 불안정 판단이 가능하다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>19시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>높은 정확도 : 저기압 영향</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KI, CT, TT, CAPE : CT, TT는 중상층 대기에 해당함</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>19시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>하층에 역전층이 존재하면 정확성이 떨어진다</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>19시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10월~5월</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4월~11월</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>19시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KI : ≥ 40</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>19시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>수증기가 거의 존재하지 않을 경우 수치의 정확성이 떨어진다</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20230216</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>19시 04분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1728,14 +1728,539 @@
           <t>TT</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>20230216</t>
-        </is>
+      <c r="D52" t="n">
+        <v>20230216</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>19시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>구름 형성 과정에서 상승기류는 수적의 낙하속도를 불규칙적으로 만든다</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>규칙</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>불규칙: 구름 형성 과정에서 상승기류는 수적의 낙하속도를 불규칙적으로 만들어 수적끼리 충돌 및 병합을 더 활발하게 만든다</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>17시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>온대저기압의 하층에서는 중심부근 기온이 주변보다</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>주야간 황사 탐지에 활용되는 위성 산출물에서 사용되는 채널과 탐지 원리는</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>단파적외채널-반사도 비교</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>적외채널-밝기온도차</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>엘니뇨 발생시 열대동태평양의 수온약층의 깊이는 깊어진다</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>얕아진다</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>깊어진다</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>북극진동이 양의 위상에 있을 때 중위도 겨울은 평년보다 온난해지는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>음의 위상</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>양의 위상</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>500 ~ 900</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CAPE  : 약함</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAPE  : 보통</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>해들리순환은 지표면의 차등복사냉각에 의해 유지된다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>X: 차등복사'가열'에 의해 유지된다</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>풍랑 경보 : 해상에서 풍속 21m/s 이상이 3시간 이상 지속될 때</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>14m/s</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>21m/s</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>18시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>일반적으로 이 지수가 3이하일 때 소나기 발생 가능성이 높다</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>18시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>건조 주의보 : 실효습도 35%이하가 2일 이상 계속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3일</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2일</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>18시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>호우 경보 : 12시간 강우량이 180mm 이상</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3시간</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>12시간</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>18시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CAPE : ≥ 1800</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>격렬함</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>18시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>반경 20㎛이상인 입자는 주로 침적, 지표면과의 충돌, 강수에 의해 대기 중에서 잘 제거된다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.1~1㎛</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>20㎛이상</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>18시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>-3 ~ -6</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SSI  : 보통</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SSI  : 강함</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>18시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>KI : 30 ~ 40</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>18시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>300 ~ 500</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CAPE  : 보통</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAPE  : 약함</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>18시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>이슬점온도</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>19시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 육상에서 순간풍속 26m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>26m/s</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>19시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>높은 정확도 : 중상층 저기압</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KI, CT, TT, CAPE </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CT, TT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>20230217</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>19시 14분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2253,14 +2253,564 @@
           <t>CT, TT</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>20230217</t>
-        </is>
+      <c r="D73" t="n">
+        <v>20230217</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>19시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>지상전문 기압 변동 : 유지</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>5 ~ 8</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>북극진동이 양의 위상에 있을 때 중위도 겨울은 평년보다 온난해지는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>음의 위상</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>양의 위상</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>지상전문 기압 변동 : 감소</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0 ~ 3</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5 ~ 8</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>지상전문 ㆍㆍ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>62번</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>61번: 약한 비 계속</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>절대와도 보존</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>단열과정 + 지균운동</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>단열과정 + 비발산대기</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>지상</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>850hPa</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>지상전문 =</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>서풍</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>동풍</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>서풍</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>동풍</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>동네예보 하늘 상태, 강수 유무는 3시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>6시간</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3시간</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>61번</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>62번: 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>레이놀즈수는 클수록 난류가 된다</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>작을수록</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>클수록</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>지상전문 ∞</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>6번</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5번: 연무</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>열대수렴대 ITCZ는 여름반구에 위치한다</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>겨울반구</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>여름반구</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>동네예보는 3시간 간격으로 발표한다</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6시간</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3시간</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>지상전문 S</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>10번</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>6번</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>반경 20㎛이상인 입자는 주로 침적, 지표면과의 충돌, 강수에 의해 대기 중에서 잘 제거된다</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0.1~1㎛</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>20㎛이상</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>해들리순환은 겨울반구에 위치한다</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>여름반구</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>겨울반구</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>지상전문 =</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>5번</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>10번: 박무</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>20230220</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,14 +1054,467 @@
           <t>작아진다: 엘니뇨시 음의 값이다</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20230221</t>
-        </is>
+      <c r="D25" t="n">
+        <v>20230221</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>20시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>61번</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>62번: 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 산지에서 순간풍속 25m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>25m/s</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 맑은 날씨</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>17시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0 ~ -2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LI : 약함</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>하계</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>연중</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>850hPa 기온 영향이 크므로 해발고도와 지형적 특징에 따라 이 지수의 차이가 발생할 수 있다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>서풍</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>동풍</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>18시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0 ~ -2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LI : 약함</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>지상전문 =</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6번</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10번: 박무</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>18시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ② 아침최저기온이 -15℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3일</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2일</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>18시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>24m/s</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>18시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>F/(H+F)
+______|  예보 O  | 예보 X
+관측 O |    H    |   M
+관측 X |    F    |   C</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">편중도(Bias) </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>오보율(FAR)</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>18시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6.3㎛</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>오존</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>수증기: 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>황사 탐지</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3.7㎛-10.8㎛</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10.8㎛-12.0㎛: 3.7㎛-10.8㎛ 는 안개</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>KI=T850-T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>T850+T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>T850-T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8~11㎛</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>수증기</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>이산화탄소: 8~11, 15.4㎛</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20230223</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20시 14분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,14 +1507,189 @@
           <t>이산화탄소: 8~11, 15.4㎛</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20230223</t>
-        </is>
+      <c r="D43" t="n">
+        <v>20230223</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>20시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>KI=T850-T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>T850-T500+D850-(T700+D700)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>T850-T500+D850-(T700-D700)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230224</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230224</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>시정 VV : 70</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>7km</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20km: 56~80은 (VV-50)km</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230224</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>온대저기압은 수평방향 온도 경도에서 에너지를 얻는다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>연직방향</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>수평방향</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230224</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3.7㎛</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>수증기</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>메탄</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230224</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>평균적인 대류권 대기에서 가온도는 지상에서 상층으로 갈수록 낮아진다</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>높아진다</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>낮아진다</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230224</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>온대저기압 발생 과정에서 저기압성 회전은 닫힌 순환을 형성한다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>열린 순환</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>닫힌 순환</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20230224</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1682,14 +1682,614 @@
           <t>닫힌 순환</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>20230224</t>
-        </is>
+      <c r="D50" t="n">
+        <v>20230224</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>우리나라에서는 여름철 하층대기 분석에 300~310K 등온위면 분석이 유용하다</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>310~315K</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>300~310K</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>19시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>19시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>48 ~ 54</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TT  : 약함</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TT  : 보통</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>19시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 500hPa 찬 공기 없음</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CT, TT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>19시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0 ~ -2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>LI : 약함</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>19시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>열적난류/기계적난류</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>레이놀즈 수</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>리차드슨 수</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>19시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 맑은 날씨</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>19시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TT : 48 ~ 54</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>19시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 여름철</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>19시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>하층의 수증기와 중층의 기온으로 만들어진 지수로서, 간단하게 뇌우의 강도를 예측할 수 있다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>19시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>장마전선은 500hPa 5820~5880m 구역에 위치한다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5520~5580m</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5820~5880m</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>KI : 30 ~ 40</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SSI : -3 ~ -6</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>19시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>수증기가 거의 존재하지 않을 경우 수치의 정확성이 떨어진다</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>19시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>61번</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>62번: 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>가온도 공식은 Tv=T(1+0.61q)이다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Tv=T(1-0.61q)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tv=T(1+0.61q)</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>호우 주의보 : 12시간 강우량이 110mm 이상</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3시간</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>12시간</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>19시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>성층권 돌연승온은 1주일 동안 40~60K의 기온 증가를 기준으로 정의한다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>30~40K</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>40~60K</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>기온과 수증기의 연직 분포로부터 대류를 발생 및 강화시킬 수 있는 잠재에너지를 수치화 한 것이다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 지면가열에 의한 불안정</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3 ~ -3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SSI  : 강함</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SSI  : 보통</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6.9㎛</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>오존</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>수증기: 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0 ~ -2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>LI : 약함</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>우리나라의 겨울철 275~280K 등온위면 분석은 눈 에보에 활용도가 높다</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>295~300K</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>275~280K</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>20230227</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2282,14 +2282,463 @@
           <t>275~280K</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>20230227</t>
-        </is>
+      <c r="D74" t="n">
+        <v>20230227</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>북극진동(AO)으로 인하여 한랭한 상층 저기압이 남쪽으로 이동하여 블로킹의 강도가 강해질 수 있다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>북쪽</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>남쪽</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>18시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>48 ~ 54</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TT  : 약함</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>TT  : 보통</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SSI : 3 ~ -3</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>지상전문 ㆍㆍ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>62번</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>61번: 약한 비 계속</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>북극진동은 극 지방과 중위도 지방의 해면기압 차이로 표현한다</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>적도</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>중위도</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>19시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TT : 42 ~ 48</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>약함</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>19시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>(H+C)/(H+M+F+C)
+______|  예보 O  | 예보 X
+관측 O |    H    |   M
+관측 X |    F    |   C</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>탐지율(POD)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>정확도(ACC)</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>19시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>하층대기에 충분히 포화되지 않고 건조한 층이 존재하면 정확성이 떨어진다</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>19시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CT : ≥ 22</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>19시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6 ~ 3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SSI  : 격렬함</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SSI  : 약함</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>19시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 작을수록 층류가 된다</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>클수록</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>작을수록</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>19시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CAPE : 900 ~ 1800</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>격렬함</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>19시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>레일리 산란은 전방산란과 후방산란의 세기가 비슷하다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>미 산란</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>레일리 산란</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>19시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>구름 조금</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0~2할</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3~5할: 맑음(0~2할), 구름 조금(3~5할), 구름 많음(6~8할), 흐림(9~10할)</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>19시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SSI : 6 ~ 3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>약함</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CAPE : ≥ 1800</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>격렬함</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>19시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>높은 정확도 : 하층제트 존재</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>KI, CAPE</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230228</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>겨울철 중층대기에는 극-적도 간 온도차로 인한 동풍의 극야제트가 존재한다</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>서풍</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>동풍</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>20230228</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2731,14 +2731,314 @@
           <t>동풍</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>20230228</t>
-        </is>
+      <c r="D92" t="n">
+        <v>20230228</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>19시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>낮은 수상당량 비를 보이나 정체된 일기배치에서 나타나는 강설형태이므로 지속시간 1일 이상 나타나기도 한다</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>19시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>지상은 시베리아 고기압에서 변질된 이동성 고기압이 중국 남동부지역에 위치하고, 중·상층 대기의 한랭한 공기를 동반한 단파 골(trough) 접근시에 발생한다. 서해상에 해기차로 생성된 눈구름의 유입으로 강설이 시작한다</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>19시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동해안 대설 사례가 많으며 전체적인 빈도는 낮다. 중상층 대기의 매우 차가운 공기와 해양의 따뜻한 수온 사이에 큰 온도차로 인한 연직 불안정 대기가 원인이다. </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>19시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>850hPa 한랭전선 통과시부터 온도골이 지나가기까지의 구간을 강설 구역으로 설정할 수 있으며, 925hPa 풍향이 중국 동해안에서 관측지점으로 유입 가능한 형태이어야 하며, 수 상당량비는 15~20으로 적설량을 산출 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>19시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>지상에서 700hPa 부근까지 습윤층이 분포하며, 동해안은 지상의 동풍에서 500hPa 서풍으로 뚜렷한 바람이 반전(backing)하는 현상이 나타난다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>19시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동해안 대설 사례가 많으며 전체적인 빈도는 낮다. 중상층 대기의 매우 차가운 공기와 해양의 따뜻한 수온 사이에 큰 온도차로 인한 연직 불안정 대기가 원인이다. </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>19시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>19시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>850hPa 한랭전선 통과시부터 온도골이 지나가기까지의 구간을 강설 구역으로 설정할 수 있으며, 925hPa 풍향이 중국 동해안에서 관측지점으로 유입 가능한 형태이어야 하며, 수 상당량비는 15~20으로 적설량을 산출 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>19시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>강설 구역은 저기압 중심에서 남쪽과 동쪽에만 분포하고, 700hPa 이하 하층대기에서 서풍형의 풍계에서 나타난다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 값으로 적설을 산출할 수 있다</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 동해안 폭설을 동반하기도 한다</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>고기압</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>저기압</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SSI를 계산할 때 850hPa면을 사용한 이유는 여름철에 태양 복사에 의한 지표 근처의 대류 활동이 왕성해져 혼합층의 고도가 850hPa에 이를 것으로 가정했기 때문이다</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>500hPa</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>850hPa</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>20230303</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3031,14 +3031,239 @@
           <t>850hPa</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>20230303</t>
-        </is>
+      <c r="D104" t="n">
+        <v>20230303</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>850hPa 한랭전선 통과시부터 온도골이 지나가기까지의 구간을 강설 구역으로 설정할 수 있으며, 925hPa 풍향이 중국 동해안에서 관측지점으로 유입 가능한 형태이어야 하며, 수 상당량비는 15~20으로 적설량을 산출 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>해상을 거쳐 들어오는 바람의 영향을 받지 않을 때까지 강설이 지속되며, 수 상당량 비는 적은 강수량에서는 10 내외이나 지속시간이 길어지면서 10이하를 보인다</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>강설 구역은 500hPa 절리저기압 내부에 10e-5/s 이상의 와도 축 내부로 한정된다.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>17시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>48 ~ 54</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TT  : 약함</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>TT  : 보통</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>성층권돌연승온 현상이 발생했을 때 북극진동은 음의 위상이다</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>양의 위상</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>음의 위상</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>대설 경보 : 산지의 24시간 신적설이 30cm 이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>20cm</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>18시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>동일한 공기에 대해 혼합비는 비습보다 크다</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>작다</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>크다</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230304</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>18시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>불안정 (불포화공기)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ&lt;Γd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Γd&lt;Γ</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>선형풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>기압경도력, 원심력</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>20230307</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,14 +3256,214 @@
           <t>기압경도력, 원심력</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>20230307</t>
-        </is>
+      <c r="D113" t="n">
+        <v>20230307</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>가용위치에너지(APE)는 열적 간접 순환에 의해 증가한다</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>직접</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>간접</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>20시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>불안정 (불포화공기)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Γd&lt;Γ</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>가용위치에너지(APE)는 열적 직접순환에 의해 운동에너지로 전환된다</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>간접</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>직접</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>850hPa 한랭전선 통과시부터 온도골이 지나가기까지의 구간을 강설 구역으로 설정할 수 있으며, 925hPa 풍향이 중국 동해안에서 관측지점으로 유입 가능한 형태이어야 하며, 수 상당량비는 15~20으로 적설량을 산출 할 수 있다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>우박은 여름, 겨울보다 봄, 가을에 많이 발생한다</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>적게</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>많이</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>양쯔강 기단</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mP </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>cT : 대륙성 열대 기단</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>오호츠크해 기단</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mT </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>mP : 해양성 한대 기단</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230310</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>동해상에서 급격히 발달하는 저기압 요약: 이동성 고기압의 서쪽 가장자리에서 저기압 중심의 기온이 따뜻한 저기압 발달</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>차가운</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>따뜻한</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>20230310</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20시 47분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3456,14 +3456,289 @@
           <t>따뜻한</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>20230310</t>
-        </is>
+      <c r="D121" t="n">
+        <v>20230310</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>20시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 52812 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>남동풍</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>북서풍</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 50712 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>북서풍</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>북동풍</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>선형풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>기압경도력, 전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>기압경도력, 원심력</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 31212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>운량은 5옥타이다</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>운량은 3옥타이다</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 실측값이다</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>고기압 주변에서 지균풍은 경도풍보다 느리다</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>빠르다</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>불안정 (포화공기)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ&lt;Γd</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>이류안개</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>수증기 공급으로 포화수증기압에 도달하여 형성</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>냉각으로 포화수증기압에 도달하여 형성: 찬 바다, 따뜻한 공기</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>정상고기압</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>원심력 &lt; 전향력 &lt; 기압경도력</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>원심력 &lt; 기압경도력 &lt; 전향력</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>강설 구역은 저기압 중심에서 남쪽과 동쪽에만 분포하고, 700hPa 이하 하층대기에서 서풍형의 풍계에서 나타난다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 값으로 적설을 산출할 수 있다</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>양간지풍은 대기 하층이 안정할 때 역전층 아래로 발생한다</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>불안정</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>안정</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3731,14 +3731,189 @@
           <t>안정</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>20230313</t>
-        </is>
+      <c r="D132" t="n">
+        <v>20230313</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>가용위치에너지(APE)는 열적 직접순환에 의해 운동에너지로 전환된다</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>간접</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>직접</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>18시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>18시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>12001 47108 11160 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>최하층 운저는 0~50m이다</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>최하층 운저는 50~100m이다</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>18시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>최하층 운저는 1000~1500m이다</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>최하층 운저는 600~1000m이다</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>19시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>CT : ≥ 22</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>격렬함</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>19시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>기압계 이동과 더불어 황사 이동경로 및 영향 분석에도 사용할 수 있다</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>500hPa 24시간 고도변화 일기도</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>850hPa 기온변화 일기도</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>19시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>산란하는 전자기파는 스넬의 법칙을 따른다</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>20230315</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>19시 27분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3906,14 +3906,64 @@
           <t>O</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>20230315</t>
-        </is>
+      <c r="D139" t="n">
+        <v>20230315</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>19시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>선형풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>기압경도력, 원심력</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>18시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69891 71060 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>6시간 전에 눈이 있었다</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>6시간 전에 비가 있었다</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>20230316</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>18시 20분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3956,14 +3956,2167 @@
           <t>6시간 전에 비가 있었다</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>20230316</t>
-        </is>
+      <c r="D141" t="n">
+        <v>20230316</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>18시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 실측값이다</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>18시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>불안정 (포화공기)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ&lt;Γd</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>18시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>우박은 여름, 겨울보다 봄, 가을에 많이 발생한다</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>적게</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>많이</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>18시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>강설 구역은 저기압 중심에서 남쪽과 동쪽에만 분포하고, 700hPa 이하 하층대기에서 서풍형의 풍계에서 나타난다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 값으로 적설을 산출할 수 있다</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>최하층 운저는 1500~2000m이다</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>최하층 운저는 600~1000m이다</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>양간지풍은 대기 하층이 안정할 때 역전층 아래로 발생한다</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>불안정</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>안정</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>18시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>등온위면 분석장에서 높은 PVU값이 나타난다면 하부 성층권의 높은 와도값이 대류권으로 침투한 것으로 볼 수 있다</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>X: 대류권 내 저기압성 와도가 발달한 경우도 있다. 이 경우 특정 K의 등온위면 분석장에만 높은 PVU가 나타나고 그 상층에는 나타나지 않는다</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>18시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>수증기가 거의 존재하지 않을 경우 수치의 정확성이 떨어진다</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>18시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>CT : 18 ~ 22</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>18시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>해상을 거쳐 들어오는 바람의 영향을 받지 않을 때까지 강설이 지속되며, 수 상당량 비는 적은 강수량에서는 10 내외이나 지속시간이 길어지면서 10이하를 보인다</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>18시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>낮 최고기온 : 9~18시 가장 높은 기온</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>11시~18시</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>9~18시</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>18시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>한파 경보 : 10월 ~ 4월 중 ② 아침최저기온이 -15℃ 이하가 2일 이상 지속될 것이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>-12℃</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>-15℃</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>18시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 여름철</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>19시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>구름 조금</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1~3할</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>3~5할: 맑음(0~2할), 구름 조금(3~5할), 구름 많음(6~8할), 흐림(9~10할)</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>19시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 01212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>운량은 5옥타이다</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>운량은 0옥타이다</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>19시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>시정 VV : 81</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>31km</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>35km: 81~88은 (VV-80)*5+30 km</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>19시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>시정 VV : 60</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>6km</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>10km: 56~80은 (VV-50)km</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>19시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>15.4㎛</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>수증기</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>이산화탄소: 8~11, 15.4㎛</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>19시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>낮은 정확도 : 건조층</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KI, SSI </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>KI, TT : TT는 850hPa에 해당</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>19시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>한대제트 북쪽의 차가운 기단 안에서 중국 중부 내륙에서 발생한 저기압이 서해상을 지나 우리나라 내륙으로 통과하는 사례이다</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>19시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>하늘이 파랗게 보이는 원리는 레일리 산란이다</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>미 산란</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>레일리 산란</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>19시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>지균풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>기압경도력, 전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>기압경도력, 전향력</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>19시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>한랭고기압</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">키가 크다 </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>키가 작다 : 온난 = 상층 고기압, 한랭 = 상층 저기압, 상하층 같음 = 키가 크다, 상하층 다름 = 키가 작다</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>61번</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>62번: 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>19시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>북태평양 기단</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mP </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>mT : 해양성 열대 기단</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>19시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>높은 물결 : 2~3m</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>물결의 높이가 특보수준에 도달 예상</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2~3m</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>성층권 돌연승온은 1주일 동안 40~60K의 기온 증가를 기준으로 정의한다</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>30~40K</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>40~60K</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>지상전문 ㆍㆍ</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>62번</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>61번: 약한 비 계속</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>산란하는 전자기파의 진행방향은 곡선이다</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>직선</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>곡선</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>19시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>저기압에 의한 강수, 하층수렴, 상층발산의 대류운동이 잘 발달된 연직대기 상태에 적용하는 것은 적합하지 않다</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>LI</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>불안정 (포화공기)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Γ&lt;Γs</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Γs&lt;Γ</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>강설 구역은 저기압 중심에서 남쪽과 동쪽에만 분포하고, 700hPa 이하 하층대기에서 서풍형의 풍계에서 나타난다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 값으로 적설을 산출할 수 있다</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>20시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>61번</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>62번: 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>20시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>지균풍을 형성하기 위해 균형을 이루는 힘</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>전향력, 원심력</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>기압경도력, 전향력</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69891 71080 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>6시간 전에 눈이 있었다</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>6시간 전에 소나기가 있었다</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>해상을 거쳐 들어오는 바람의 영향을 받지 않을 때까지 강설이 지속되며, 수 상당량 비는 적은 강수량에서는 10 내외이나 지속시간이 길어지면서 10이하를 보인다</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>20시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>구름 조금</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>0~2할</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3~5할: 맑음(0~2할), 구름 조금(3~5할), 구름 많음(6~8할), 흐림(9~10할)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69908 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>집수 기간 18시간</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>집수 기간 9시간</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230327</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>20시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69891 71080 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>6시간 전에 눈이 있었다</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6시간 전에 소나기가 있었다</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>엘니뇨 발생 시 인도네시아, 필리핀, 호주 북부 등에서 산불 발생 빈도가 증가한다</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>감소한다</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>증가한다</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>18시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 육상에서 순간풍속 20m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>15m/s</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>20m/s</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>18시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>부착(aggretion)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>과냉각수적+빙정</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>빙정+빙정</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>18시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>18시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>기온의 일교차는 대기경계층에서만 나타난다</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>자유대기</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>대기경계층</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>18시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>가온도 공식은 Tv=T(1+0.61q)이다</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Tv=T(1-0.61q)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tv=T(1+0.61q)</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>18시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>일반적으로 이 지수가 3이하일 때 소나기 발생 가능성이 높다</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>18시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>18시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>일반적으로 이 지수가 3이하일 때 소나기 발생 가능성이 높다</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>18시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>0 ~ -2</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>LI : 약함</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>18시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>양간지풍은 대기 하층이 안정할 때 역전층 아래로 발생한다</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>불안정</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>안정</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>18시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>황사 탐지</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>3.7㎛-10.8㎛</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>10.8㎛-12.0㎛: 3.7㎛-10.8㎛ 는 안개</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>18시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>6.9㎛</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>오존</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>수증기: 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>18시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TT = T850 - T500 + D850 - T500</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>18시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 작을수록 층류가 된다</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>클수록</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>작을수록</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>18시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>엘니뇨 발생시 열대동태평양의 수온약층의 깊이는 깊어진다</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>얕아진다</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>깊어진다</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>18시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CT : ≥ 22</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>격렬함</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>18시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>고기압 주변에서 지균풍은 경도풍보다 느리다</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>빠르다</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>18시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CT : ≥ 22</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>19시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>레이놀즈 수가 작을수록 층류가 된다</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>클수록</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>작을수록</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>19시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>지상전문 ∞</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>19시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>높은 정확도 : 하층제트 존재</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>KI, CAPE</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>19시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>기온과 수증기의 연직 분포로부터 대류를 발생 및 강화시킬 수 있는 잠재에너지를 수치화 한 것이다</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>LI</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CAPE</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>19시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>지상전문 =</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>6번</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>10번: 박무</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>19시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>(H+C)/(H+M+F+C)
+______|  예보 O  | 예보 X
+관측 O |    H    |   M
+관측 X |    F    |   C</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>임계성공지수(CSI)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>정확도(ACC)</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>19시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">지상전문 : </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>61번</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>62번: 보통 비 단속</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>19시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 서해안과 중부지방을 중심으로 많은 눈이 내리기도 한다</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>고기압</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>저기압</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>19시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>높은 정확도 : 맑은 날씨</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>19시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>CT : 16 ~ 18</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>약함</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>16 ~ 18</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>CT  : 강함 ~ 격렬함</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>CT  : 약함</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>대설 주의보 : 24시간 신적설이 5cm이상 예상될 때</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>12시간</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>24시간</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>19시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>레일리 산란은 전방산란과 후방산란의 세기가 비슷하다</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>미 산란</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>레일리 산란</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230328</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>20시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>높은 정확도 : 하층제트 존재</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>KI, CAPE</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>19시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>16 ~ 18</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>CT  : 보통</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>CT  : 약함</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>절대 소용돌이도는 로스비파의 형성 원인</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>잠재 소용돌이도</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>절대 소용돌이도</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>19시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>12000 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>풍속 단위는 kts이며 실측값이다</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>19시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>500 ~ 900</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>CAPE  : 강함</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>CAPE  : 보통</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>19시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 한파가 발생하기도 한다</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>고기압</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>저기압</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>19시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>반경 20㎛이상인 입자는 주로 침적, 지표면과의 충돌, 강수에 의해 대기 중에서 잘 제거된다</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>0.1㎛이하</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>20㎛이상</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>20시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>북극진동은 극 지방과 중위도 지방의 해면기압 차이로 표현한다</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>적도</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>중위도</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>20시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>주 강설 구역은 영동지방이며, 해상에서 대류성 눈구름이 만들어진 후 유입된다</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>20시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>높은 물결 : 2~3m</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>물결의 높이가 특보수준에 도달 예상</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2~3m</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>우리나라 북쪽에 저기압이 위치하는 블로킹 패턴이 봄철에 발생하면 서해안과 중부지방을 중심으로 많은 눈이 내리기도 한다</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>고기압</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>저기압</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 11074 21104 30174 40203 52002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>기압은 3시간 동은 0.2hPa 감소했다</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>기압은 3시간 동은 0.2hPa 증가했다</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>20시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>낮은 수상당량 비를 보이나 정체된 일기배치에서 나타나는 강설형태이므로 지속시간 1일 이상 나타나기도 한다</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>동해안형</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>20시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>지상은 시베리아 고기압에서 변질된 이동성 고기압이 중국 남동부지역에 위치하고, 중·상층 대기의 한랭한 공기를 동반한 단파 골(trough) 접근시에 발생한다. 서해상에 해기차로 생성된 눈구름의 유입으로 강설이 시작한다</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>온난 종관저기압형</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>20230329</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6109,14 +6109,789 @@
           <t>발해만 저기압형</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>20230329</t>
-        </is>
+      <c r="D227" t="n">
+        <v>20230329</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>25 ~ 30</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>KI  : 보통</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>KI  : 약함</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>18시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>12001 47108 11560 51212 10074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>이슬점 온도는 -11.4℃이다</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>기온은 7.4℃이다</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>18시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>한대 제트류는 강한 기온 경도에 의해 발생하는 한대 전선과 밀접한 관련이 있다</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>아열대 제트류</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>한대 제트류</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>40mm</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>50mm</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>18시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>동네예보 강수량, 적설량은 6시간 간격이다</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>3시간</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>6시간</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>18시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>구름방울 크기</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>수십㎛</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>0.5㎜: 수십㎛는 응결에 의해 성장한 물방울의 크기</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>19시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>이슬점온도</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>19시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>TT : 48 ~ 54</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>강함</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>19시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>이슬점온도</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>19시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>다음 대설 개념모델 중 성격이 다른 하나는?</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>동해안형: 동해안형은 한대제트 축 남쪽, 나머지는 북쪽에서 발생하는 현상이다</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>19시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>12001 47108 11060 51212 11074 21104 30174 40203 57002 69927 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>집수 기간 15시간</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>집수 기간 3시간</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>19시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>9.6㎛</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>이산화탄소</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>오존</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>19시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>이슬점온도</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>19시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>하층의 수증기와 중층의 기온으로 만들어진 지수로서, 간단하게 뇌우의 강도를 예측할 수 있다</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>19시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>925hPa(기준고도 810m)에서 기온이 0도보다 높으면 눈이 내릴 가능성이 희박하다</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>영하 5도</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0도</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>지상전문 ∞</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>10번</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>5번: 연무</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>19시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>주야간 황사 탐지에 활용되는 위성 산출물에서 사용되는 채널과 탐지 원리는</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>단파적외채널-반사도 비교</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>적외채널-밝기온도차</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>19시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>밝은 띠 하부에서는 강수입자의 반사도가 낮아진다</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>높아진다</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>낮아진다</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>19시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Cp [ J Kg^-1 K^-1 ]</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>19시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>12003 47108 11560 51212 11074 21104 30174 40203 57002 69902 85501 333 10012 21084</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>풍속 단위는 m/s이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>풍속 단위는 kts이며 추정값이다</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>19시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>공기의 단위 부피당 수증기량은 이슬점온도를 통해 파악한다</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>상대습도</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>이슬점온도</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>19시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>우박은 습구 빙결고도가 낮아야 발생하기 유리하다</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>높아야</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>낮아야</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>18시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>30m/s</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>24m/s</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>18시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>19시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>-3 ~ -5</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>LI : 강함</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>LI : 보통</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>19시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>저기압 발달 단계에 해당하며 동중국해와 서해상에서 습윤한 공기를 공급받아 내륙으로 이동하면서 대설이 발생한다</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>서해안형</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>한랭 종관 저기압형</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>19시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>안개 탐지</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>10.8㎛-12.0㎛</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>3.7㎛-10.8㎛: 10.8㎛-12.0㎛ 는 황사 탐지</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>19시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>온대저기압의 상층에서는 중심부근 기온이 주변보다</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>19시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 온위는 증가한다</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>감소한다</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>증가한다</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>19시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>우리나라에서는 여름철 하층대기 분석에 300~310K 등온위면 분석이 유용하다</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>295~300K</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>300~310K</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>19시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>우리나라에서는 여름철 하층대기 분석에 300~310K 등온위면 분석이 유용하다</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>310~315K</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>300~310K</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>20230331</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>19시 23분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6884,14 +6884,772 @@
           <t>300~310K</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>20230331</t>
-        </is>
+      <c r="D258" t="n">
+        <v>20230331</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
           <t>19시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>12121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+40737 26172 35542 30938 42162 33557 25059 50969 33669 20201
+62359 32041 15379 57579 30554 10631 68171 28541 88177 66957
+30570 77266 33572 42129 77177 30570 44316 31313 44108 81119=
+지상 풍속은 3kts이다</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>3kts</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>3m/s</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>18시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>52121 47102 99015 12465 29003 00169 16475 23507 92831 14270
+14512 85536 08265 11516 70103 01182 08512 50573 15565 34033
+=
+보고되는 마지막 표준 등압면은 500hPa이다</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>100 or 150hPa</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>500hPa</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>18시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>저기압 주변에서 경도풍은 지균풍보다 느리다</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>빠르다</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>느리다</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>18시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>남고북저형 기압배치가 양간지풍 발생하기 유리하다</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>동고서저</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>남고북저</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>18시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>남고북저형 기압배치가 양간지풍 발생하기 유리하다</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>북고남저</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>남고북저</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>18시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>중·상층 대기의 기온이 온난하므로 850hPa이하의 지표부근 대기기온과 지상의 기온이 절대적으로 중요하다. 수 상당량 비는 10이하이다</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>극 저기압형</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>온난 종관저기압형</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>19시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 온위는 증가한다</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>감소한다</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>증가한다</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>19시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>황사 탐지</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>3.7㎛-10.8㎛</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>10.8㎛-12.0㎛: 3.7㎛-10.8㎛ 는 안개</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>19시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>다음 중 성격이 다른 하나는?</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>침강역전층</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>복사역전층: 복사역전층은 지상역전층이고 나머지는 공중역전층이다</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>19시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>지상전문 [ = ]</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>황사 탐지</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>3.7㎛-10.8㎛</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>10.8㎛-12.0㎛: 3.7㎛-10.8㎛ 는 안개</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>지상전문 [ = ]</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>가용 위치 에너지 APE 는 수평방향의 온도경도에 의해 결정된다</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>연직방향</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>수평방향</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>지구복사수지(earth radiation budget)에 따르면 지표에서 대기로의 열전달은 현열보다 잠열의 역할이 더 크다</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>잠열보다 현열</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>현열보다 잠열</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>19시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>중력파에 의해 형성된 구름은 대기가 안정한 상태임을 나타낸다</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>불안정</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>안정</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>19시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>지상전문 [ = ]</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>19시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>반경 0.1~1㎛인 입자는 대기 중 체류시간이 길이 이 크기 범위의 입자를 accumulation mode라고 한다</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>0.1㎛이하</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>0.1~1㎛</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>17시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>3 ~ -3</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SSI  : 약함</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>SSI  : 보통</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>17시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>7.2㎛</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>메탄</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>수증기: 6.2, 6.3, 6.9, 7.3㎛</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>17시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>장마전선은 가강수량 50mm 이상 지역과 850hPa에서 노점편차 4℃ 이하 지역이다</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>5℃</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>4℃</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>구름 많음</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>8할~10할</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>6~8할: 맑음(0~2할), 구름 조금(3~5할), 구름 많음(6~8할), 흐림(9~10할)</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>온대저기압은 상층으로 갈수록 바람이 강해진다</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>약해진다</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>강해진다</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>지상전문 [ = ]</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>연무</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>박무</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>강풍 경보 : 산지에서 풍속 24m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>30m/s</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>24m/s</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>결착(accretion=riming)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>빙정+빙정</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>과냉각수적+빙정</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>강설 구역은 저기압 중심에서 남쪽과 동쪽에만 분포하고, 700hPa 이하 하층대기에서 서풍형의 풍계에서 나타난다. 지상의 기온이 0℃ 이하라면, 수 상당량 비는 15이상의 값으로 적설을 산출할 수 있다</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>온난 종관저기압형</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>발해만 저기압형</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>18시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>16 ~ 18</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>CT  : 보통</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>CT  : 약함</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>18시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>강풍 주의보 : 산지에서 순간풍속 25m/s 이상이 예상될 때</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>30m/s</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>25m/s</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>18시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>강한 서풍에 의해 포화된 공기가 산맥을 따라 상승할 경우 습구온위는 변함없다</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>증가한다</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>변함없다</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>18시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>가용위치에너지(APE)는 열적 간접 순환에 의해 증가한다</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>직접</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>간접</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>20230405</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>18시 44분</t>
         </is>
       </c>
     </row>
